--- a/Testdata/TC_Unit Manipulation_14.xlsx
+++ b/Testdata/TC_Unit Manipulation_14.xlsx
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>D1QAAB+LCAAAAAAAAAPtXFtv48YV/iuEH4oEqDykJNuyM8tAluyNUMkyLDm7zsuCIkc2uxSp8GJbb+lDESC9AEWTAOkVeSgaBGiah7RIk6L9L0G8mz71L/TMheSQotaid4smKIMFojmXuZ455zuHxuBXr2eOckn8wPbcexvaprqhENf0LNs9v7cRhdOatr3xqo4Prk3iHBu+MSMhCCug5QZ714F9b+MiDOd7CF1dXW1eNTY9/xzVVVVDDwf9kXlBZkbNdoPQcE2ykWhZt2tt6LhjzQYkNCwjNLjmvY3eqLfZIbbZBdrAcI1z4m/uR4HtkiA4cEM7tElANX1ihKTTHbzOF6bXN7c3NYyW6KnkfmQ7FpfLSHK6kINhydieEb2u1tWaVq+pjbGm7jXre9rWZlNtvRErJoK4bwThiPiXtskIo9CYzZm6Vlcbmtqsa1sYFQpBX+kG6HjoWCfk0g6I1SGOE5TaESQOsG2GsOpym6liJOmKju4+hfu+Mb8Y26FDyqofej4xYaPuNPYRuRr6Yv/G8z5wxxe2Hy66xqJ0X6cB8YdzuhvlVHXc9dyw7RA/PJ3DoRILzhwYeuhHBKMVzFSpawcm/LbdiFj61HACWSnDxA88/3EwN0xyBBcW0T6uXMczLLCs0A5C20wHXWLgY9+bQ48w+L7nWIfQqxAuYCQ991zYYjrsvuc9TmdXxMTMBpg1wJnOjDAWX6Lj0YV3NXSdxSiaBKZvT4jV3Y+lC3mY3jyh3YmC0JvBLFIS5jSJsoD/4KblybhLTHtmOMcObGKgN6CXDAG3o9Cb2mHHc6KZG8RzylHxA1jRmFwnK0zaeAiH69JN99yeG8vzbS5kZRVOvKtkzGUG2wSJ3A7M+LiXGXnhLtDi41vmsBOhqzy0HQgE8llI1KxVjC4ICQtNgnMw9XmHNLTo+ws6JkYpBYNlgnUDVacBosb+jVV1j/2DkRM2PnAtIacx59yQ5WImPopmwwnc4Eu2Jl0DXo6EYRXOvmO4j4H6wA4vjtrx7As4mK95pfwyD8NdnTvGgpGTfZFpuOeaTmQR7gJ67pQZJZ0bP8aVbLxE6sOt1rHhLsaLObjcwN4L4ce9DQjCe0HoQ5jf0E0vckN/QX0FRkL0Np0gmrhsAMNZW2fqkzcjQBeLw8g1O561/mgW351T1w7Xn6EX+dwBrq/Cdo/6wijoEupVmJtfW98ss6bALyU+c8nMc21z/d2GTaazt+6wkCC+VWtrEH6/1pZ3IJLzQEfv+tpqPkBDCG2lhmkHgWfazFjF9bAkfbTiynTJ1IgcgGUhBNXzxNvmybgdPM7LyCR86juxz9Mp6A0A9ZrWbNMEuECR3abpzSgBAdh8MMJIlqeYxyQH7nnfcM8jQBWJX8nTE49LI+LYN9yALicBETnnWyyEYz/FwY3OndcwYobAnZcHXIxycnhMZnPPN5wBbIx9KMxOICQAHwMjvBAtiGYOMeNNRqlqopWdWTzx28RYWOLLoBdeuMkckQnRtXB8ncqkNExXOYBr6XQMx5743KvGwbuIBweWwsHY/9LFlYSG8RlAjgXx9gdkQYF32hB0ZrJazOAGTB2pPjpptupb6hYkE6yN2Yrve5ehAqiXACpUasrYuFZeUXquZV/aVmQ48BOMD1bGt0eEoFKasg4+jP07m0Ib5pmlZAUAWZzbED6WBRNOqqCfEcN3FpIgX2LfM0Huybv/vPniN0/e/evNj/9Qe/rRz2/e+fDff//V159//PUXX3AqXyOXxmNj4hA2o/F+q6U2mmBgCQnTXUUMBVuRGTLa2RkDv0kbi2SNNToHvc79/j5zJAkxVuexBNE8cOFFaXPEV8EGYmeJYhPgIvo4dkyineFKsUmnedklyUrL/FWKfC+efvnHp1/+aaW22LAUZGm7uy2W+N6OwbQluQSD9TPOnwo3a+pWrV6XhHMy+IR7/mSfepYO+fOuqu2oWuLErcSKi4TyLNHT2DhHOT1O6nBclJiA3I6ZzPLHJAgTNr8LUkPY6F9+8s2f38tIid0VlGwvMDmGX+hgKG6wro9OxspoeHrSOVDGByNqJylPkuOdP0NYjJ5cqIxRuS7c8u8rENUhiikbkPxsKN5UIYZ5oSzgKkoXMWNsRVQ+0B27zM/yvu9Fc34ikkJKLZBM3EmhRoGzYTy2n0teJ2UViPO53vztsyIFsZBuimT1k8G+MnMTu2Q0nOFwksQXt/aDf3z9+dvUuX36i5vPf5TpQYyTVADAzuE2yc3E7MHliUCTo+AHI7aZj9VHUmARRJpBHXu2Gwa61mTJk2hhUNVob+z/uDeDWMc6ZvsF9BwFv2YEB9ehuNj6EUZZAsxzbkCY9dI0MyFwH57u679++7snv/7syfuffvP2xzfvfHTz0/effvn7bz75kN+6J+99+uRnnwgvnw8EbC40eeXoT2GlEFOht1GhQVv56q1fKq4XKoA1lIh5pK/e+kDqjE6UoZK0Z8ByyUSyU1gSlZWpniJNJZlDRi9R4ZG/Q0NYI5EQQcyb22Y6yBs12hW9d4zxUm9ciwKieACjXoaVZIVT5XX1hAoPqcc7al2rCy6fDV3CxAikrb/veBOAETGD1RpyIhmtZyuksmy8+/3hfrufivBJDH2L+NQM+Q/cC2I0GZuXRAEuoDwzcmhJaElsmYXjX5LrQqK2Mm1b1OXpalH9IiOBO5HvcxTkipr8KJoD8o0rcKv5rCopgd0jDkxl+Ju2e90sH9oSF4Jflk0JjM/ckWBx19QLaBmHY9cjujVpE3iZSiZshyi7c3QFSJL4iPqaA9/3/EKHk3JisQHAZvAiKN3xRAbRITnEttKzigmxk6ugdgW1K6hdQe0Kav+/Qe0LaxXUppwVULtAsTzC1lYjbO0RmWg7Dc3Yrlm7cDGbu9p2bdecNmvG7o5BtIkx2Wrs/g/Ad3xYBR8ZVs5h/ah0l3N/likWZE0v2pM+d8x+tjO9xcndnrOhZ5xYlUlVmdSLzqS0JJOKkXjAa/25LwDgjCz99Kg3fjRoH/WOT/vtcW9IcwWKIKSAxkVO++Pecb93cPLSa5Fr+cR6ReHJTqgYjqPM6CeGuWNDIvEy/RgjxcP0r5P4NJK2wO1w389JOEg6iOH764YTEf21Lkb8F0Olemd4NBq3jyCMi89EuS6LRjDmc4dFiFWDjE9OD8oNg+RVcfiaT0IkanISqWds+3Z4AR3Y5nBO+DeLAFzoklyiSpO9VEkp0mL5YD6dFu7I4wrkrukV4skGyvhblAst+Xbs+WQ6krIWJCUiqCjtQJk8Az13ToFW5gKrOfFM08BUWDAoiFuFcqsygELh2zOAPGxnlPVBPcoEOLQM2lMSWonH0RLoRsUweAV5SSUx/0JikVUl4KSQGA8ggUXEsQlahpboxRRpkYzH1OeChOujBCQR0HLUzpJQJsyifEiVCUiKf6gg2uVoKBuukPBK6LtW3BNjf5ure+gu9Tz04sp2UmDp2tPpGUDIh+nfTsUEPuO0F9rgMXUJlCAJtUi2If7A6sUay12wTVE3VT25bD15/fS6KjVXpeaq1FyVmqtSc1Vq/g6XmuurS831Rw3S3G3s7GzVzGZrh8bCaW0ymRC40ur2zm5rx1StZlVqrkrNVam5KjV/m0rN9arUXJWaq1JzVWquSs1VqbkqNVel5u9WqXkVUgEE0imCJwKZnL0Ep0OfzghfUbSyEMQUqllUoFWQoIIEFSSoIEEFCSpIUEGC6utzcblD+d45YI4VMKT6MP0iPkyvX4z/r3yYFj/4UxexjXeJA1iv7HNYsfbAu7yzLphFWdVeMHQssc/l3lpItiXtQH6cjNpQ2cm0fR/AB33NqPRrYn3bfdwrt3pdbaqtKamru9sTVd1pTaxWvamarZ1JU53stkxAVKxTmhnQLmYAEenDFeUG0ajrktXTR0ZODPe8ZG98g5kifYgDdordVVEnT9r40PaD8CHFB+IXp5wllDOOKR/SN7n4D9Y+0xviIT0QQPJgKDPr2PWE/B07z+nbM7vkYx1q7J+ynYAZzOccIpY90E53cESuIVmTegA4MfkhIBf+uk2Z3vitgtwo0Y/7GkWT0t2hWPkY+NSw7qZ9YAHyvLs2exXOdp5jAgxv3rWLnhvY5xdh2XNttkytPmk2alpjatWapqbVDG17WmtOJ4Q6eaPRaNHnvETnEDhsclVyEBpu7CAynPJ6KPesp/4fcA4WbA9UAAA=</t>
+          <t>5VQAAB+LCAAAAAAAAAPtXFlz2zgS/issP2xlHmSQsmxLHoRTupxoVofLkifJvqQgEpKwpkgNDzv699sAeIAUlYgaz27tDKdSNUIfOBpA99dNF/Av37aO9kL9gHnu+wvjUr/QqGt5NnPX7y+icNUwbi5+MfHwm0WdB+KTLQ1BWAMtN7j7FrD3F5sw3N0h9Pr6evl6den5a9TUdQN9nozn1oZuSYO5QUhci16kWvaPtS5M3Le3ExoSm4REar6/GM1Hl33KrAHQJsQla+pf9qKAuTQIhm7IQkYDrulTEtL+YPKbXJjZvLy5NDA6oGeSvYg5tpTLSUp6LAfD0gXbUrOpN/WGftswrhZ65+66c9e6umxf6/9KFFNBPCZBOKf+C7MEYR6S7U6o67fGld657rSuMCoVgr4yA5h45tiP9IUF1O5TxwkqWQTFG9i1Qlh1NWPqGCm6cUfnT+GDT3abBQsdWlX93vOpBYY6a+wpfZ35sf0WuzFwFxvmh/sB2Vfu6ymg/mzHrVFN1cQDzw27DvXDpx1sKrVhz4Fhhn5EMTrCzJQGLLDgN3Mjapsr4gSqUo6JP3n+c7AjFp3ChUW8j1fX8YgNJytkQcisbNADBn7wvR30CIP3PMe+h15j4RJG2vPIBRPzYXue95zNroyJxRkQpwH2dEvCRPyAjucb73XmOvt5tAwsny2pPegl0qU8zG9erN2PgtDbwiwyEpY0hTKZoD38B5etyMEDarEtcR4csGNgwjXNE3A3Cr0VC/ueE23dIJlWgYo/waIW9Fu6yLSNZ7C/Lre7547cRF5aupSVV3j0XtMxDxnCDgq5G1jJjh8yisIDoCU7eMgRm8JXec8ciAXqdijU/MGYbygNS0+F5GDu9u55dDF7ez4mRhkFw+GEAw5Uk8eIhvi30PU78Q9GTtl46NqxnKE3jGbjSpVLmHgabWdLuMQvYk2mAbwCCcMqnJ5D3GegfmLhZtpNZl/CwXLNR+UPeRiu684he0FO7aLS8Mi1nMim0guM3JU4lHxuchuPsvEBaQwX28TE3S/2O/C6AbsL4cf7C4jDd0HoQ6S/MC0vckN/z90FRrHoj3SCaOmKAYhzss7Kp79HADD295Fr9T379NFsaZ0nl4Wnz9CLfOkDT1cR1uPuMAoGlDsW4elP1reqrCnwK4lvXbr1XGadbm0wMp+9fcZCguRWnaxB5f06Wd6BYC5jHb/rJ6v5gA4hulUaphsEnsXEYY2vh63ooyNXZkBXJHIAmYUQV9epty2ScTd4LsqoJPzkO4nPMznuDQD4Wvb20gLEwMHdpeVtOQEB3vw0x0iV57DHokN3PSbuOgJgkfqVIj31uDwoLnziBnw5KY4oON9yIZz4KYlvTOm8ZpE4CNJ5ecDFqCCHF3S783ziTMAw7D4+djFIAvwxIeEmbkE0c6iVGBllqqlWfmbJxH8kJsKSXAa/8LGbLBCFEF+LhNiZTEbDfJUTuJZOnzhs6UuvmgTvMh5sWIYIE//LF1cRHSZ7AGkWxNt/0j3H3lkjposjayQMeYC5IzXnj632bbt11QQsw9tYrPjdoP8T4DY7Eka708YM/O+KUVubgosDe2ofSHCnTSa9xROEQWGkOBCdoa9q4vvE14vpTODI5gh5PoCMNYNIciCXMjJ5cwLQc+PsFUm52rFngeA7uHneTntkDgvk3J/BMfB5al2HbLU+YX5uxVINL8jSoWJqi1673e7cwqFLSZhbGglwzG0haKPBVIDilIDjJE40+sNR/+FxIrxLSkz0ZYBBPD/ce1HWnMv1iJHEBqPkXEgRs594q7id4yoBy1QTgryOKnVMXZpEMeTRLmLj5TDazYkYrckxml6K0ca54BAn3NBpRxEuyOBHGRlSk40gob9uGc0rXW+mTt5Oz3eZUJEV97Qga1TQk6S+xE3xceA3L2snTHEbRq7twX1nJJWRl0RpSEuWC8ZWjiklQjBTAXb4yChpiCEGDPLmEFxnSLUP1KX8znorbcYcjbg2vxZgm0xcUZWDcv1noa/9CiFe6E+YuyfPmk1cca160ZapncSzTW+neuIO727uPJZRZXffVSyO+MH3ot2B38moJZKlHuiQW9AUNjucWsYrkZeT7UUQQ4lbphSvZpBBXnMy1cBfaeEmPaOCjItMSVVEZF+/RiERMo9sGeW6iMdKKwZw6OFqqc30DoAvjKNSgYI/zYVVn/WvShSKiTzdevCYGwZmuyUyrbiFQdXgvYn/49EWAqPoWNgN6AUK/kiC4bcwvuUm+N48Aea5I3BMvSwnTQnSuWe2hSZ1tNHg8rHX043WnXYkTmi5YBIHhGLMELMTvw56/F7U1N6pPlrtnC9FaGYjJfPThnCD1/y2FSVUHVNI7ZU55BRSWQkc+hDt2repRBzvvB2zst7nwgekoxe4mXQy8lz4HEUwlpHx9aF907kyYq4cj4OjJQloiSeEZdAti7ZaIiPqEgXpXAcn62Zq0oVPB7PpcD7qZlJydjMfHB8/k/IHHgUJDk3OmkIBLuBDC+53SA/FDlk4+aU4NBRXZVZdm9fiTb2s8pGTwP3I9yVqcuOC/jzaAWZOCy/HBURNU8HJU4lpVeSctUeDPB/aChfiYp7NCYIvXFPMkm5qFPAKkIS9U26brAm8XB0U7BEX7SUIe2GwD4h7nqHve36p+8k4idgEEDf4FJSZPJVBfEiJzu1ssxJC4vJqlF6j9Bql1yi9Ruk1Si9B6Rxhb+wyiJ5w/gv43DiOz42vhFwbN/qq0+isiNVoWR3SaNvX7YbdXhnNZYfQFSH/A+iebFzJ94yjczg5cp11BL53LMuTrrd2rm8U4L/vZU/xfj/O/9B39q/Oyuqs7E/Nyow0K0tAfSC/OBS+Q4Cfss2n6WjxddKdjh6ext3FaMbTDg42lOgmRZ7Gi9HDeDR8fPcxcm2f2j9rMm8KNeI42pZ/6Ng5DHKSn/gnISU4Zn8mJaeRtuMUAPzAmoaTtIMkE/iNOBE1PwI+kb8EmDX7s+l80Z0uYFvkx6pCl2UjkN3OEcHj2CCLx6dhtWGQuioJeov5jEJNdyJzml2fhRvogFmzHZVfTgDSHMqlqjxvzJS0Mi2RWhZT89g3eVKBnpupIZmsoJwfRoWoU2wnblClIyXrQUr+gsqyFZTLTtAfzkTQ0dzhOCeZaRawSosPJfGsVO5YslAq/ONkoYjwBeV0/I9yIQ8dQvuMhI6idXSAv1E5Jj5CPlBJj38psexUpbillJgMoOBIJGELOgSf6G2qv0iFavofQounQwakENBhgM6TUC7ComI0VQlICYyoJAwWaCgfsVDslVBdKHzzQiE6pzSI3q4CqASWAVutvgDS/Zz9BVdCkDPOeuENGVMPQAlSUItyNuI/83rbw3IOtinr5u915N6kNn166l2XreuydV22rsvWddm6Llv/jcrWzeNl6+bXZZN02s1Ws0GIddtoGSu70bnp3DZWhtGybuxbYiz1umxdl63rsnVdtv4/KVs367J1Xbauy9Z12bouW9dl67ps/RevIf7lytbHkAogkH4ZPImRyZd3sDv8PZDwZ82oCkGsWDWPCowaEtSQoIYENSSoIUENCWpIUH/JLi93aP9YA+Y4AkPqj9xv8pH79EL9n/KRO/4hX+9IDvmAOgD2qj7ylWhPvJezdeFcVFUdBTPHju1c7fmI1CxZB+qTa/wMVZ1M1/cBffAHmiq/kTZm7vOo2upNq6Xrt1bTbrab7euW3rlq2RZpd8j1ylpd8T+NkJ3y1IB3sQWMyN/iqDaIwX2Xqp69m/JI3HXF3qSBhSJ/WwQsJb+KghJ/VyRp43vmB+FnDhDiX5LyJaV8kaDysxm/BvhZtr+Y7WtJAAGkDoZys058Tyhf5/OcMduyiu+P6Il/yncCx2C3kxix6ob2B5Mp/QbZmtID4InlvwG6yAd7qvQmbxUkR6l+0tc8WlbuDiXKD8DnB+s87aEN0PN8bfHWHXP+wAQE4Dy3i5EbsPUmrLqvHWrctjqddqO9tJoN+HXdWF43W43WqmkYt8aKXDdt/kJZ3DkEDkZfKw7Cww0LIuJU10OFx0rN/wAzACd65VQAAA==</t>
         </r>
       </text>
     </comment>
@@ -39,12 +39,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="yyyy"/>
+    <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="164" formatCode="yyyy"/>
+    <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +63,23 @@
     </font>
     <font>
       <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -96,20 +113,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,44 +442,44 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Govt Revenue - Tax ; Individual Income</t>
+          <t>(DC)Production: Liquefied Natural Gas: MMBTU</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>Govt Revenue - Tax ; Individual Income</t>
+          <t>(DC)Production: Liquefied Natural Gas: MMBTU</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>Govt Revenue - Tax ; Individual Income</t>
+          <t>(DC)Production: Liquefied Natural Gas: MMBTU</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Region</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Indonesia</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>Subnational</t>
         </is>
@@ -465,133 +489,133 @@
       <c r="D3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Annual, ending "Dec" of each year</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Annual, ending "Dec" of each year</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Annual, ending "Dec" of each year</t>
+          <t>Monthly</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>RMB mn</t>
+          <t>MN BTU th</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>RMB hd</t>
+          <t>BTU hd</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>RMB hd</t>
+          <t>BTU hd</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>NRT SOURCE TEST</t>
+          <t>Directorate General of Oil and Gas</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>NRT SOURCE TEST</t>
+          <t>Directorate General of Oil and Gas</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>NRT SOURCE TEST</t>
+          <t>Directorate General of Oil and Gas</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Discontinued</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Discontinued</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Discontinued</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>Series ID</t>
         </is>
       </c>
-      <c r="B8" s="3">
-        <v>310901701</v>
-      </c>
-      <c r="C8" s="3">
-        <v>310901701</v>
-      </c>
-      <c r="D8" s="3">
-        <v>310901701</v>
+      <c r="B8" s="5">
+        <v>254123002</v>
+      </c>
+      <c r="C8" s="5">
+        <v>254123002</v>
+      </c>
+      <c r="D8" s="5">
+        <v>254123002</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>SR Code</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>SR4825055</t>
+          <t>SR4878432</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>SR4825055</t>
+          <t>SR4878432</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>SR4825055</t>
+          <t>SR4878432</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Mnemonic</t>
         </is>
@@ -601,7 +625,7 @@
       <c r="D10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>Function Description</t>
         </is>
@@ -619,371 +643,1071 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>First Obs. Date</t>
         </is>
       </c>
-      <c r="B12" s="4">
-        <v>36130</v>
-      </c>
-      <c r="C12" s="4">
-        <v>36130</v>
-      </c>
-      <c r="D12" s="4">
-        <v>36130</v>
+      <c r="B12" s="6">
+        <v>38718</v>
+      </c>
+      <c r="C12" s="6">
+        <v>38718</v>
+      </c>
+      <c r="D12" s="6">
+        <v>38718</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Last Obs. Date</t>
         </is>
       </c>
-      <c r="B13" s="4">
-        <v>40878</v>
-      </c>
-      <c r="C13" s="4">
-        <v>40878</v>
-      </c>
-      <c r="D13" s="4">
-        <v>40878</v>
+      <c r="B13" s="6">
+        <v>41244</v>
+      </c>
+      <c r="C13" s="6">
+        <v>41244</v>
+      </c>
+      <c r="D13" s="6">
+        <v>41244</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>Last Update Time</t>
         </is>
       </c>
-      <c r="B14" s="5">
-        <v>41781</v>
-      </c>
-      <c r="C14" s="5">
-        <v>41781</v>
-      </c>
-      <c r="D14" s="5">
-        <v>41781</v>
+      <c r="B14" s="7">
+        <v>43839</v>
+      </c>
+      <c r="C14" s="7">
+        <v>43839</v>
+      </c>
+      <c r="D14" s="7">
+        <v>43839</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="inlineStr">
+      <c r="A15" s="8" t="inlineStr">
         <is>
           <t>Series remarks</t>
         </is>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>Suggestions</t>
         </is>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>Mean</t>
         </is>
       </c>
       <c r="B17" s="2">
-        <v>1231.927</v>
+        <v>93374.63980350002</v>
       </c>
       <c r="C17" s="2">
-        <v>12319270</v>
+        <v>933746398035</v>
       </c>
       <c r="D17" s="2">
-        <v>12319270</v>
+        <v>933746398035</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>Variance</t>
         </is>
       </c>
       <c r="B18" s="2">
-        <v>196242.7157566667</v>
+        <v>67588679.72409233</v>
       </c>
       <c r="C18" s="2">
-        <v>19624271575666.67</v>
+        <v>6.758867972409233e+21</v>
       </c>
       <c r="D18" s="2">
-        <v>19624271575666.67</v>
+        <v>6.758867972409233e+21</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>Standard Deviation</t>
         </is>
       </c>
       <c r="B19" s="2">
-        <v>442.9929071177852</v>
+        <v>8221.233467314521</v>
       </c>
       <c r="C19" s="2">
-        <v>4429929.071177852</v>
+        <v>82212334673.1452</v>
       </c>
       <c r="D19" s="2">
-        <v>4429929.071177852</v>
+        <v>82212334673.1452</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>Skewness</t>
         </is>
       </c>
       <c r="B20" s="2">
-        <v>0.4639651794892382</v>
+        <v>0.5786993566761636</v>
       </c>
       <c r="C20" s="2">
-        <v>0.4639651794892376</v>
+        <v>0.5786993566761698</v>
       </c>
       <c r="D20" s="2">
-        <v>0.4639651794892376</v>
+        <v>0.5786993566761698</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>Kurtosis</t>
         </is>
       </c>
       <c r="B21" s="2">
-        <v>-0.8990137168045287</v>
+        <v>-0.2909755924600841</v>
       </c>
       <c r="C21" s="2">
-        <v>-0.8990137168045296</v>
+        <v>-0.290975592460077</v>
       </c>
       <c r="D21" s="2">
-        <v>-0.8990137168045296</v>
+        <v>-0.290975592460077</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>Coefficient Variation</t>
         </is>
       </c>
       <c r="B22" s="2">
-        <v>0.3595934719490564</v>
+        <v>0.08804567797654154</v>
       </c>
       <c r="C22" s="2">
-        <v>0.3595934719490564</v>
+        <v>0.08804567797654156</v>
       </c>
       <c r="D22" s="2">
-        <v>0.3595934719490564</v>
+        <v>0.08804567797654156</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>Min</t>
         </is>
       </c>
       <c r="B23" s="2">
-        <v>727.63</v>
+        <v>80465.44901</v>
       </c>
       <c r="C23" s="2">
-        <v>7276300</v>
+        <v>804654490100</v>
       </c>
       <c r="D23" s="2">
-        <v>7276300</v>
+        <v>804654490100</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
       <c r="B24" s="2">
-        <v>2026.83</v>
+        <v>112482.41951</v>
       </c>
       <c r="C24" s="2">
-        <v>20268300</v>
+        <v>1124824195100</v>
       </c>
       <c r="D24" s="2">
-        <v>20268300</v>
+        <v>1124824195100</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>Median</t>
         </is>
       </c>
       <c r="B25" s="2">
-        <v>1181.145</v>
+        <v>92555.497445</v>
       </c>
       <c r="C25" s="2">
-        <v>11811450</v>
+        <v>925554974450</v>
       </c>
       <c r="D25" s="2">
-        <v>11811450</v>
+        <v>925554974450</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>No. of Obs</t>
         </is>
       </c>
       <c r="B26" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D26" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="7">
-        <v>37226</v>
-      </c>
-      <c r="B27" s="8">
-        <v>791.02</v>
-      </c>
-      <c r="C27" s="8">
-        <v>7910200</v>
-      </c>
-      <c r="D27" s="8">
-        <v>7910200</v>
+      <c r="A27" s="10">
+        <v>38718</v>
+      </c>
+      <c r="B27" s="11">
+        <v>102584.6417</v>
+      </c>
+      <c r="C27" s="11">
+        <v>1025846417000</v>
+      </c>
+      <c r="D27" s="11">
+        <v>1025846417000</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="7">
-        <v>37591</v>
-      </c>
-      <c r="B28" s="8">
-        <v>767.73</v>
-      </c>
-      <c r="C28" s="8">
-        <v>7677300</v>
-      </c>
-      <c r="D28" s="8">
-        <v>7677300</v>
+      <c r="A28" s="10">
+        <v>38749</v>
+      </c>
+      <c r="B28" s="11">
+        <v>93467.54944</v>
+      </c>
+      <c r="C28" s="11">
+        <v>934675494400</v>
+      </c>
+      <c r="D28" s="11">
+        <v>934675494400</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="7">
-        <v>37956</v>
-      </c>
-      <c r="B29" s="8">
-        <v>727.63</v>
-      </c>
-      <c r="C29" s="8">
-        <v>7276300</v>
-      </c>
-      <c r="D29" s="8">
-        <v>7276300</v>
+      <c r="A29" s="10">
+        <v>38777</v>
+      </c>
+      <c r="B29" s="11">
+        <v>98607.01212</v>
+      </c>
+      <c r="C29" s="11">
+        <v>986070121200</v>
+      </c>
+      <c r="D29" s="11">
+        <v>986070121200</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="7">
-        <v>38322</v>
-      </c>
-      <c r="B30" s="8">
-        <v>922.91</v>
-      </c>
-      <c r="C30" s="8">
-        <v>9229100</v>
-      </c>
-      <c r="D30" s="8">
-        <v>9229100</v>
+      <c r="A30" s="10">
+        <v>38808</v>
+      </c>
+      <c r="B30" s="11">
+        <v>97395.64367</v>
+      </c>
+      <c r="C30" s="11">
+        <v>973956436700</v>
+      </c>
+      <c r="D30" s="11">
+        <v>973956436700</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="7">
-        <v>38687</v>
-      </c>
-      <c r="B31" s="8">
-        <v>1126.49</v>
-      </c>
-      <c r="C31" s="8">
-        <v>11264900</v>
-      </c>
-      <c r="D31" s="8">
-        <v>11264900</v>
+      <c r="A31" s="10">
+        <v>38838</v>
+      </c>
+      <c r="B31" s="11">
+        <v>92075.12437000001</v>
+      </c>
+      <c r="C31" s="11">
+        <v>920751243700</v>
+      </c>
+      <c r="D31" s="11">
+        <v>920751243700</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7">
+      <c r="A32" s="10">
+        <v>38869</v>
+      </c>
+      <c r="B32" s="11">
+        <v>95232.23819</v>
+      </c>
+      <c r="C32" s="11">
+        <v>952322381900</v>
+      </c>
+      <c r="D32" s="11">
+        <v>952322381900</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="10">
+        <v>38899</v>
+      </c>
+      <c r="B33" s="11">
+        <v>100047.7073</v>
+      </c>
+      <c r="C33" s="11">
+        <v>1000477073000</v>
+      </c>
+      <c r="D33" s="11">
+        <v>1000477073000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="10">
+        <v>38930</v>
+      </c>
+      <c r="B34" s="11">
+        <v>95307.24011</v>
+      </c>
+      <c r="C34" s="11">
+        <v>953072401100</v>
+      </c>
+      <c r="D34" s="11">
+        <v>953072401100</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="10">
+        <v>38961</v>
+      </c>
+      <c r="B35" s="11">
+        <v>89917.83798</v>
+      </c>
+      <c r="C35" s="11">
+        <v>899178379800</v>
+      </c>
+      <c r="D35" s="11">
+        <v>899178379800</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="10">
+        <v>38991</v>
+      </c>
+      <c r="B36" s="11">
+        <v>98395.83232</v>
+      </c>
+      <c r="C36" s="11">
+        <v>983958323200</v>
+      </c>
+      <c r="D36" s="11">
+        <v>983958323200</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="10">
+        <v>39022</v>
+      </c>
+      <c r="B37" s="11">
+        <v>98170.13428</v>
+      </c>
+      <c r="C37" s="11">
+        <v>981701342800</v>
+      </c>
+      <c r="D37" s="11">
+        <v>981701342800</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="10">
         <v>39052</v>
       </c>
-      <c r="B32" s="8">
-        <v>1235.8</v>
-      </c>
-      <c r="C32" s="8">
-        <v>12358000</v>
-      </c>
-      <c r="D32" s="8">
-        <v>12358000</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="7">
+      <c r="B38" s="11">
+        <v>98568.94826</v>
+      </c>
+      <c r="C38" s="11">
+        <v>985689482600</v>
+      </c>
+      <c r="D38" s="11">
+        <v>985689482600</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="10">
+        <v>39083</v>
+      </c>
+      <c r="B39" s="11">
+        <v>95524.24980000001</v>
+      </c>
+      <c r="C39" s="11">
+        <v>955242498000</v>
+      </c>
+      <c r="D39" s="11">
+        <v>955242498000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="10">
+        <v>39114</v>
+      </c>
+      <c r="B40" s="11">
+        <v>83617.02267999999</v>
+      </c>
+      <c r="C40" s="11">
+        <v>836170226800</v>
+      </c>
+      <c r="D40" s="11">
+        <v>836170226800</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="10">
+        <v>39142</v>
+      </c>
+      <c r="B41" s="11">
+        <v>98607.01212</v>
+      </c>
+      <c r="C41" s="11">
+        <v>986070121200</v>
+      </c>
+      <c r="D41" s="11">
+        <v>986070121200</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="10">
+        <v>39173</v>
+      </c>
+      <c r="B42" s="11">
+        <v>87313.59292</v>
+      </c>
+      <c r="C42" s="11">
+        <v>873135929200</v>
+      </c>
+      <c r="D42" s="11">
+        <v>873135929200</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="10">
+        <v>39203</v>
+      </c>
+      <c r="B43" s="11">
+        <v>89092.12278000001</v>
+      </c>
+      <c r="C43" s="11">
+        <v>890921227800</v>
+      </c>
+      <c r="D43" s="11">
+        <v>890921227800</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="10">
+        <v>39234</v>
+      </c>
+      <c r="B44" s="11">
+        <v>83580.49619999999</v>
+      </c>
+      <c r="C44" s="11">
+        <v>835804962000</v>
+      </c>
+      <c r="D44" s="11">
+        <v>835804962000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="10">
+        <v>39264</v>
+      </c>
+      <c r="B45" s="11">
+        <v>89062.82719</v>
+      </c>
+      <c r="C45" s="11">
+        <v>890628271900</v>
+      </c>
+      <c r="D45" s="11">
+        <v>890628271900</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="10">
+        <v>39295</v>
+      </c>
+      <c r="B46" s="11">
+        <v>93159.99709999999</v>
+      </c>
+      <c r="C46" s="11">
+        <v>931599971000</v>
+      </c>
+      <c r="D46" s="11">
+        <v>931599971000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="10">
+        <v>39326</v>
+      </c>
+      <c r="B47" s="11">
+        <v>86589.08224</v>
+      </c>
+      <c r="C47" s="11">
+        <v>865890822400</v>
+      </c>
+      <c r="D47" s="11">
+        <v>865890822400</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="10">
+        <v>39356</v>
+      </c>
+      <c r="B48" s="11">
+        <v>93035.87052</v>
+      </c>
+      <c r="C48" s="11">
+        <v>930358705200</v>
+      </c>
+      <c r="D48" s="11">
+        <v>930358705200</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="10">
+        <v>39387</v>
+      </c>
+      <c r="B49" s="11">
+        <v>91356.15084</v>
+      </c>
+      <c r="C49" s="11">
+        <v>913561508400</v>
+      </c>
+      <c r="D49" s="11">
+        <v>913561508400</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="10">
         <v>39417</v>
       </c>
-      <c r="B33" s="8">
-        <v>1482.71</v>
-      </c>
-      <c r="C33" s="8">
-        <v>14827100</v>
-      </c>
-      <c r="D33" s="8">
-        <v>14827100</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="7">
+      <c r="B50" s="11">
+        <v>95688.73797</v>
+      </c>
+      <c r="C50" s="11">
+        <v>956887379700</v>
+      </c>
+      <c r="D50" s="11">
+        <v>956887379700</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="10">
+        <v>39448</v>
+      </c>
+      <c r="B51" s="11">
+        <v>96328.9469</v>
+      </c>
+      <c r="C51" s="11">
+        <v>963289469000</v>
+      </c>
+      <c r="D51" s="11">
+        <v>963289469000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="10">
+        <v>39479</v>
+      </c>
+      <c r="B52" s="11">
+        <v>98953.75303000001</v>
+      </c>
+      <c r="C52" s="11">
+        <v>989537530300</v>
+      </c>
+      <c r="D52" s="11">
+        <v>989537530300</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="10">
+        <v>39508</v>
+      </c>
+      <c r="B53" s="11">
+        <v>90097.77222</v>
+      </c>
+      <c r="C53" s="11">
+        <v>900977722200</v>
+      </c>
+      <c r="D53" s="11">
+        <v>900977722200</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="10">
+        <v>39539</v>
+      </c>
+      <c r="B54" s="11">
+        <v>82155.80794</v>
+      </c>
+      <c r="C54" s="11">
+        <v>821558079400</v>
+      </c>
+      <c r="D54" s="11">
+        <v>821558079400</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="10">
+        <v>39569</v>
+      </c>
+      <c r="B55" s="11">
+        <v>90612.21428</v>
+      </c>
+      <c r="C55" s="11">
+        <v>906122142800</v>
+      </c>
+      <c r="D55" s="11">
+        <v>906122142800</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="10">
+        <v>39600</v>
+      </c>
+      <c r="B56" s="11">
+        <v>83468.69955999999</v>
+      </c>
+      <c r="C56" s="11">
+        <v>834686995600</v>
+      </c>
+      <c r="D56" s="11">
+        <v>834686995600</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="10">
+        <v>39630</v>
+      </c>
+      <c r="B57" s="11">
+        <v>85880.46527</v>
+      </c>
+      <c r="C57" s="11">
+        <v>858804652700</v>
+      </c>
+      <c r="D57" s="11">
+        <v>858804652700</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="10">
+        <v>39661</v>
+      </c>
+      <c r="B58" s="11">
+        <v>88071.95206</v>
+      </c>
+      <c r="C58" s="11">
+        <v>880719520600</v>
+      </c>
+      <c r="D58" s="11">
+        <v>880719520600</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="10">
+        <v>39692</v>
+      </c>
+      <c r="B59" s="11">
+        <v>86411.6581</v>
+      </c>
+      <c r="C59" s="11">
+        <v>864116581000</v>
+      </c>
+      <c r="D59" s="11">
+        <v>864116581000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="10">
+        <v>39722</v>
+      </c>
+      <c r="B60" s="11">
+        <v>85863.46357000001</v>
+      </c>
+      <c r="C60" s="11">
+        <v>858634635700</v>
+      </c>
+      <c r="D60" s="11">
+        <v>858634635700</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="10">
+        <v>39753</v>
+      </c>
+      <c r="B61" s="11">
+        <v>87911.15601999999</v>
+      </c>
+      <c r="C61" s="11">
+        <v>879111560200</v>
+      </c>
+      <c r="D61" s="11">
+        <v>879111560200</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="10">
         <v>39783</v>
       </c>
-      <c r="B34" s="8">
-        <v>1598.61</v>
-      </c>
-      <c r="C34" s="8">
-        <v>15986100</v>
-      </c>
-      <c r="D34" s="8">
-        <v>15986100</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="7">
+      <c r="B62" s="11">
+        <v>91789.90822</v>
+      </c>
+      <c r="C62" s="11">
+        <v>917899082200</v>
+      </c>
+      <c r="D62" s="11">
+        <v>917899082200</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="10">
+        <v>39814</v>
+      </c>
+      <c r="B63" s="11">
+        <v>92030.37178</v>
+      </c>
+      <c r="C63" s="11">
+        <v>920303717800</v>
+      </c>
+      <c r="D63" s="11">
+        <v>920303717800</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="10">
+        <v>39845</v>
+      </c>
+      <c r="B64" s="11">
+        <v>80465.44901</v>
+      </c>
+      <c r="C64" s="11">
+        <v>804654490100</v>
+      </c>
+      <c r="D64" s="11">
+        <v>804654490100</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="10">
+        <v>39873</v>
+      </c>
+      <c r="B65" s="11">
+        <v>81558.51788</v>
+      </c>
+      <c r="C65" s="11">
+        <v>815585178800</v>
+      </c>
+      <c r="D65" s="11">
+        <v>815585178800</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="10">
+        <v>39904</v>
+      </c>
+      <c r="B66" s="11">
+        <v>81657.46119</v>
+      </c>
+      <c r="C66" s="11">
+        <v>816574611900</v>
+      </c>
+      <c r="D66" s="11">
+        <v>816574611900</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="10">
+        <v>39934</v>
+      </c>
+      <c r="B67" s="11">
+        <v>83308.78529</v>
+      </c>
+      <c r="C67" s="11">
+        <v>833087852900</v>
+      </c>
+      <c r="D67" s="11">
+        <v>833087852900</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="10">
+        <v>39965</v>
+      </c>
+      <c r="B68" s="11">
+        <v>84839.49019</v>
+      </c>
+      <c r="C68" s="11">
+        <v>848394901900</v>
+      </c>
+      <c r="D68" s="11">
+        <v>848394901900</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="10">
+        <v>39995</v>
+      </c>
+      <c r="B69" s="11">
+        <v>90413.66712</v>
+      </c>
+      <c r="C69" s="11">
+        <v>904136671200</v>
+      </c>
+      <c r="D69" s="11">
+        <v>904136671200</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="10">
+        <v>40026</v>
+      </c>
+      <c r="B70" s="11">
+        <v>85945.56743</v>
+      </c>
+      <c r="C70" s="11">
+        <v>859455674300</v>
+      </c>
+      <c r="D70" s="11">
+        <v>859455674300</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="10">
+        <v>40057</v>
+      </c>
+      <c r="B71" s="11">
+        <v>84672.43913</v>
+      </c>
+      <c r="C71" s="11">
+        <v>846724391300</v>
+      </c>
+      <c r="D71" s="11">
+        <v>846724391300</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="10">
+        <v>40087</v>
+      </c>
+      <c r="B72" s="11">
+        <v>85370.54401</v>
+      </c>
+      <c r="C72" s="11">
+        <v>853705440100</v>
+      </c>
+      <c r="D72" s="11">
+        <v>853705440100</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="10">
+        <v>40118</v>
+      </c>
+      <c r="B73" s="11">
+        <v>86578.4388</v>
+      </c>
+      <c r="C73" s="11">
+        <v>865784388000</v>
+      </c>
+      <c r="D73" s="11">
+        <v>865784388000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="10">
         <v>40148</v>
       </c>
-      <c r="B35" s="8">
-        <v>1639.54</v>
-      </c>
-      <c r="C35" s="8">
-        <v>16395400</v>
-      </c>
-      <c r="D35" s="8">
-        <v>16395400</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="7">
+      <c r="B74" s="11">
+        <v>97156.65667</v>
+      </c>
+      <c r="C74" s="11">
+        <v>971566566700</v>
+      </c>
+      <c r="D74" s="11">
+        <v>971566566700</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="10">
+        <v>40179</v>
+      </c>
+      <c r="B75" s="11">
+        <v>97289.10838000001</v>
+      </c>
+      <c r="C75" s="11">
+        <v>972891083800</v>
+      </c>
+      <c r="D75" s="11">
+        <v>972891083800</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="10">
+        <v>40210</v>
+      </c>
+      <c r="B76" s="11">
+        <v>94671.4368</v>
+      </c>
+      <c r="C76" s="11">
+        <v>946714368000</v>
+      </c>
+      <c r="D76" s="11">
+        <v>946714368000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="10">
+        <v>40238</v>
+      </c>
+      <c r="B77" s="11">
+        <v>110403.24314</v>
+      </c>
+      <c r="C77" s="11">
+        <v>1104032431400</v>
+      </c>
+      <c r="D77" s="11">
+        <v>1104032431400</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="10">
+        <v>40269</v>
+      </c>
+      <c r="B78" s="11">
+        <v>99640.66865000001</v>
+      </c>
+      <c r="C78" s="11">
+        <v>996406686500</v>
+      </c>
+      <c r="D78" s="11">
+        <v>996406686500</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="10">
+        <v>40299</v>
+      </c>
+      <c r="B79" s="11">
+        <v>110055.8161</v>
+      </c>
+      <c r="C79" s="11">
+        <v>1100558161000</v>
+      </c>
+      <c r="D79" s="11">
+        <v>1100558161000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="10">
+        <v>40330</v>
+      </c>
+      <c r="B80" s="11">
+        <v>94930.02968000001</v>
+      </c>
+      <c r="C80" s="11">
+        <v>949300296800</v>
+      </c>
+      <c r="D80" s="11">
+        <v>949300296800</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="10">
+        <v>40360</v>
+      </c>
+      <c r="B81" s="11">
+        <v>111079.15933</v>
+      </c>
+      <c r="C81" s="11">
+        <v>1110791593300</v>
+      </c>
+      <c r="D81" s="11">
+        <v>1110791593300</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="10">
+        <v>40391</v>
+      </c>
+      <c r="B82" s="11">
+        <v>112482.41951</v>
+      </c>
+      <c r="C82" s="11">
+        <v>1124824195100</v>
+      </c>
+      <c r="D82" s="11">
+        <v>1124824195100</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="10">
+        <v>40422</v>
+      </c>
+      <c r="B83" s="11">
+        <v>105503.17811</v>
+      </c>
+      <c r="C83" s="11">
+        <v>1055031781100</v>
+      </c>
+      <c r="D83" s="11">
+        <v>1055031781100</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="10">
+        <v>40452</v>
+      </c>
+      <c r="B84" s="11">
+        <v>107765.02529</v>
+      </c>
+      <c r="C84" s="11">
+        <v>1077650252900</v>
+      </c>
+      <c r="D84" s="11">
+        <v>1077650252900</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="10">
+        <v>40483</v>
+      </c>
+      <c r="B85" s="11">
+        <v>101364.03607</v>
+      </c>
+      <c r="C85" s="11">
+        <v>1013640360700</v>
+      </c>
+      <c r="D85" s="11">
+        <v>1013640360700</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="10">
         <v>40513</v>
       </c>
-      <c r="B36" s="8">
-        <v>2026.83</v>
-      </c>
-      <c r="C36" s="8">
-        <v>20268300</v>
-      </c>
-      <c r="D36" s="8">
-        <v>20268300</v>
+      <c r="B86" s="11">
+        <v>109354.00938</v>
+      </c>
+      <c r="C86" s="11">
+        <v>1093540093800</v>
+      </c>
+      <c r="D86" s="11">
+        <v>1093540093800</v>
       </c>
     </row>
   </sheetData>
@@ -1003,34 +1727,34 @@
         <MetadataSeries>
           <InitRow>1</InitRow>
           <InitCol>2</InitCol>
-          <EndRow>36</EndRow>
+          <EndRow>86</EndRow>
           <EndCol>2</EndCol>
-          <Name>Govt Revenue - Tax ; Individual Income</Name>
-          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
-          <SeriesId>310901701</SeriesId>
-          <Code>SR4825055</Code>
+          <Name>(DC)Production: Liquefied Natural Gas: MMBTU</Name>
+          <DisplayName>(DC)Production: Liquefied Natural Gas: MMBTU</DisplayName>
+          <SeriesId>254123002</SeriesId>
+          <Code>SR4878432</Code>
           <Order>0</Order>
         </MetadataSeries>
         <MetadataSeries>
           <InitRow>1</InitRow>
           <InitCol>3</InitCol>
-          <EndRow>36</EndRow>
+          <EndRow>86</EndRow>
           <EndCol>3</EndCol>
-          <Name>Govt Revenue - Tax ; Individual Income</Name>
-          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
-          <SeriesId>310901701</SeriesId>
-          <Code>SR4825055</Code>
+          <Name>(DC)Production: Liquefied Natural Gas: MMBTU</Name>
+          <DisplayName>(DC)Production: Liquefied Natural Gas: MMBTU</DisplayName>
+          <SeriesId>254123002</SeriesId>
+          <Code>SR4878432</Code>
           <Order>1</Order>
         </MetadataSeries>
         <MetadataSeries>
           <InitRow>1</InitRow>
           <InitCol>4</InitCol>
-          <EndRow>36</EndRow>
+          <EndRow>86</EndRow>
           <EndCol>4</EndCol>
-          <Name>Govt Revenue - Tax ; Individual Income</Name>
-          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
-          <SeriesId>310901701</SeriesId>
-          <Code>SR4825055</Code>
+          <Name>(DC)Production: Liquefied Natural Gas: MMBTU</Name>
+          <DisplayName>(DC)Production: Liquefied Natural Gas: MMBTU</DisplayName>
+          <SeriesId>254123002</SeriesId>
+          <Code>SR4878432</Code>
           <Order>2</Order>
         </MetadataSeries>
       </MetaDataSeries>
@@ -1040,7 +1764,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE11A235-AD41-47F9-8D74-A55F31D38762}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9C0F94F-54CE-452D-A8D9-74EFDEA03FF0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
   </ds:schemaRefs>
